--- a/用例数据/深A/实时代收付/CDS业务保费支付/测试结果.xlsx
+++ b/用例数据/深A/实时代收付/CDS业务保费支付/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="279">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -730,144 +730,133 @@
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
-    <t>176</t>
+    <t>00</t>
+  </si>
+  <si>
+    <t>000011725200</t>
+  </si>
+  <si>
+    <t>焦振鹏主股东</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>80000.120</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>000011721200</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>20221013235959</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>20221013000000</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>30002888</t>
+  </si>
+  <si>
+    <t>005_005_091</t>
+  </si>
+  <si>
+    <t>20221014075730</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>1003816197.200</t>
+  </si>
+  <si>
+    <t>CDS业务保费支付</t>
+  </si>
+  <si>
+    <t>000006909430</t>
+  </si>
+  <si>
+    <t>30002890</t>
+  </si>
+  <si>
+    <t>1003896197.060</t>
+  </si>
+  <si>
+    <t>000006909432</t>
+  </si>
+  <si>
+    <t>30002892</t>
+  </si>
+  <si>
+    <t>1003976196.920</t>
+  </si>
+  <si>
+    <t>000006909434</t>
+  </si>
+  <si>
+    <t>30002887</t>
   </si>
   <si>
     <t>005_005_092</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>20221006103617</t>
-  </si>
-  <si>
-    <t>000011725200</t>
-  </si>
-  <si>
-    <t>焦振鹏主股东</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>99990</t>
-  </si>
-  <si>
-    <t>80000.120</t>
-  </si>
-  <si>
-    <t>10212635.340</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>99998</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>CDS业务保费支付</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>000006874875</t>
-  </si>
-  <si>
-    <t>NONDVP</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>005_005_091</t>
-  </si>
-  <si>
-    <t>000011721200</t>
-  </si>
-  <si>
-    <t>100070788.360</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
-    <t>000006874876</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>10132635.220</t>
-  </si>
-  <si>
-    <t>000006874877</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>100150788.220</t>
-  </si>
-  <si>
-    <t>000006874878</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>10052635.100</t>
-  </si>
-  <si>
-    <t>000006874879</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>100230788.080</t>
-  </si>
-  <si>
-    <t>000006874880</t>
-  </si>
-  <si>
-    <t>005_005_092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_005_091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000011725200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0117252000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0117212000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>14498944.880</t>
+  </si>
+  <si>
+    <t>000006909429</t>
+  </si>
+  <si>
+    <t>30002889</t>
+  </si>
+  <si>
+    <t>14418944.760</t>
+  </si>
+  <si>
+    <t>000006909431</t>
+  </si>
+  <si>
+    <t>30002891</t>
+  </si>
+  <si>
+    <t>14338944.640</t>
+  </si>
+  <si>
+    <t>000006909433</t>
   </si>
 </sst>
 </file>
@@ -916,10 +905,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1200,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI221"/>
+  <dimension ref="A1:EI213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,31 +1217,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1646,38 +1636,41 @@
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>75</v>
@@ -1686,16 +1679,16 @@
         <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>78</v>
@@ -1710,19 +1703,19 @@
         <v>80</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>85</v>
@@ -1764,34 +1757,34 @@
         <v>85</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>79</v>
@@ -1809,22 +1802,22 @@
         <v>79</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BJ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>88</v>
@@ -1872,28 +1865,28 @@
         <v>79</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>85</v>
@@ -1902,7 +1895,7 @@
         <v>85</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>91</v>
@@ -1972,56 +1965,59 @@
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>78</v>
@@ -2036,7 +2032,7 @@
         <v>80</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -2045,10 +2041,10 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>85</v>
@@ -2090,34 +2086,34 @@
         <v>85</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>79</v>
@@ -2135,7 +2131,7 @@
         <v>79</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>80</v>
@@ -2150,7 +2146,7 @@
         <v>79</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>88</v>
@@ -2198,28 +2194,28 @@
         <v>79</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>85</v>
@@ -2228,7 +2224,7 @@
         <v>85</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>91</v>
@@ -2298,56 +2294,59 @@
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>78</v>
@@ -2362,19 +2361,19 @@
         <v>80</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>85</v>
@@ -2416,34 +2415,34 @@
         <v>85</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>79</v>
@@ -2461,22 +2460,22 @@
         <v>79</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BJ4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN4" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>88</v>
@@ -2524,28 +2523,28 @@
         <v>79</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>85</v>
@@ -2554,7 +2553,7 @@
         <v>85</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>91</v>
@@ -2624,56 +2623,59 @@
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>78</v>
@@ -2688,16 +2690,16 @@
         <v>80</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>79</v>
@@ -2742,34 +2744,34 @@
         <v>85</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>79</v>
@@ -2787,13 +2789,13 @@
         <v>79</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>85</v>
@@ -2802,7 +2804,7 @@
         <v>79</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>88</v>
@@ -2850,28 +2852,28 @@
         <v>79</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>85</v>
@@ -2880,7 +2882,7 @@
         <v>85</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>91</v>
@@ -2950,56 +2952,59 @@
       </c>
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>78</v>
@@ -3014,16 +3019,16 @@
         <v>80</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>79</v>
@@ -3068,34 +3073,34 @@
         <v>85</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>79</v>
@@ -3113,22 +3118,22 @@
         <v>79</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BJ6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>88</v>
@@ -3176,28 +3181,28 @@
         <v>79</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC6" s="1" t="s">
         <v>85</v>
@@ -3206,7 +3211,7 @@
         <v>85</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>91</v>
@@ -3276,38 +3281,41 @@
       </c>
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>106</v>
@@ -3316,16 +3324,16 @@
         <v>106</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>78</v>
@@ -3340,19 +3348,19 @@
         <v>80</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>85</v>
@@ -3394,34 +3402,34 @@
         <v>85</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AQ7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>79</v>
@@ -3439,13 +3447,13 @@
         <v>79</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>85</v>
@@ -3454,7 +3462,7 @@
         <v>79</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>88</v>
@@ -3502,28 +3510,28 @@
         <v>79</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DC7" s="1" t="s">
         <v>85</v>
@@ -3532,7 +3540,7 @@
         <v>85</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>91</v>
@@ -3601,7 +3609,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3807,14 +3825,6 @@
     <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深A/实时代收付/CDS业务保费支付/测试结果.xlsx
+++ b/用例数据/深A/实时代收付/CDS业务保费支付/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="280">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -787,9 +787,6 @@
     <t>20221013000000</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>30002888</t>
   </si>
   <si>
@@ -857,6 +854,14 @@
   </si>
   <si>
     <t>000006909433</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1192,31 +1197,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1635,12 +1640,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>236</v>
@@ -1649,7 +1654,7 @@
         <v>252</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>70</v>
@@ -1679,7 +1684,7 @@
         <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>240</v>
@@ -1712,7 +1717,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>251</v>
@@ -1760,7 +1765,7 @@
         <v>243</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>250</v>
@@ -1784,7 +1789,7 @@
         <v>85</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>79</v>
@@ -1802,7 +1807,7 @@
         <v>79</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>80</v>
@@ -1865,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>88</v>
@@ -1964,12 +1969,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>236</v>
@@ -1978,7 +1983,7 @@
         <v>252</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>70</v>
@@ -2008,7 +2013,7 @@
         <v>98</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>240</v>
@@ -2041,7 +2046,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>79</v>
@@ -2089,7 +2094,7 @@
         <v>243</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>250</v>
@@ -2113,7 +2118,7 @@
         <v>85</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>79</v>
@@ -2131,7 +2136,7 @@
         <v>79</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>80</v>
@@ -2194,7 +2199,7 @@
         <v>79</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>88</v>
@@ -2293,12 +2298,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>236</v>
@@ -2307,7 +2312,7 @@
         <v>252</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>70</v>
@@ -2337,7 +2342,7 @@
         <v>106</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>240</v>
@@ -2370,7 +2375,7 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>251</v>
@@ -2418,7 +2423,7 @@
         <v>243</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>250</v>
@@ -2442,7 +2447,7 @@
         <v>85</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>79</v>
@@ -2460,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>80</v>
@@ -2523,7 +2528,7 @@
         <v>79</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>88</v>
@@ -2622,12 +2627,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>236</v>
@@ -2636,7 +2641,7 @@
         <v>252</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>70</v>
@@ -2666,7 +2671,7 @@
         <v>75</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>240</v>
@@ -2699,7 +2704,7 @@
         <v>242</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>79</v>
@@ -2747,7 +2752,7 @@
         <v>243</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>237</v>
@@ -2771,7 +2776,7 @@
         <v>85</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>79</v>
@@ -2789,7 +2794,7 @@
         <v>79</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>80</v>
@@ -2852,7 +2857,7 @@
         <v>79</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>88</v>
@@ -2951,12 +2956,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>236</v>
@@ -2965,7 +2970,7 @@
         <v>252</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>70</v>
@@ -2995,7 +3000,7 @@
         <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>240</v>
@@ -3028,7 +3033,7 @@
         <v>242</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>79</v>
@@ -3076,7 +3081,7 @@
         <v>243</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>237</v>
@@ -3100,7 +3105,7 @@
         <v>85</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>79</v>
@@ -3118,7 +3123,7 @@
         <v>79</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>80</v>
@@ -3181,7 +3186,7 @@
         <v>79</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>88</v>
@@ -3280,12 +3285,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>236</v>
@@ -3294,7 +3299,7 @@
         <v>252</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>70</v>
@@ -3324,7 +3329,7 @@
         <v>106</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>240</v>
@@ -3357,7 +3362,7 @@
         <v>242</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>79</v>
@@ -3405,7 +3410,7 @@
         <v>243</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>237</v>
@@ -3429,7 +3434,7 @@
         <v>85</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>79</v>
@@ -3447,7 +3452,7 @@
         <v>79</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>80</v>
@@ -3510,7 +3515,7 @@
         <v>79</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>88</v>
@@ -3609,7 +3614,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3620,211 +3625,211 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3840,9 +3845,9 @@
       <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -4206,7 +4211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -4814,7 +4819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -5118,7 +5123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -5270,7 +5275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -5422,7 +5427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
